--- a/biology/Zoologie/Antanartia/Antanartia.xlsx
+++ b/biology/Zoologie/Antanartia/Antanartia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antanartia est un genre de lépidoptères de la famille des Nymphalidae et de la sous-famille Nymphalinae. Ses espèces résident en Afrique et dans certaines îles de l'océan Indien.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trois espèces sont actuellement reconnues dans le genre Antanartia[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trois espèces sont actuellement reconnues dans le genre Antanartia :
 Antanartia borbonica (Oberthür, 1879) — la Vanesse de l'obetie — Mascareignes.
 Antanartia borbonica borbonica — endémique de l'île de La Réunion.
 Antanartia borbonica mauritiana Manders, 1908 — endémique de l'île Maurice.
-Antanartia delius (Drury, [1782]) — Afrique.
+Antanartia delius (Drury, ) — Afrique.
 Antanartia delius delius
 Antanartia delius guineensis Howarth, 1966
 Antanartia schaeneia (Trimen, 1879) — Afrique.
@@ -551,13 +565,15 @@
           <t>Historique et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Antanartia a été décrit en 1903 par Lord Walter Rothschild et Heinrich Jordan, avec pour espèce type Papilio delius Drury, [1782][2].
-La composition et la position systématique du genre ont été précisées dans les années 2000 par des études de phylogénétique moléculaire[3],[4], qui ont notamment conduit à transférer trois espèces du genre Antanartia au genre Vanessa :
-Vanessa abyssinica (C. &amp; R. Felder, [1867])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Antanartia a été décrit en 1903 par Lord Walter Rothschild et Heinrich Jordan, avec pour espèce type Papilio delius Drury, .
+La composition et la position systématique du genre ont été précisées dans les années 2000 par des études de phylogénétique moléculaire qui ont notamment conduit à transférer trois espèces du genre Antanartia au genre Vanessa :
+Vanessa abyssinica (C. &amp; R. Felder, )
 Vanessa dimorphica (Howarth, 1966)
-Vanessa hippomene (Hübner, [1823])</t>
+Vanessa hippomene (Hübner, )</t>
         </is>
       </c>
     </row>
